--- a/R Code and Analysis/output from r/occurrence_table.xlsx
+++ b/R Code and Analysis/output from r/occurrence_table.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mawha\Dropbox\Martone Lab\martone_calvert\R Code and Analysis\output from r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{91DE11A3-600E-4894-8894-051ECF317DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECFDD91-7792-4D15-AA7A-04F4140F4928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="occurrence_table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="205">
   <si>
     <t>Acrochaetium.sp.</t>
   </si>
@@ -446,12 +454,201 @@
   </si>
   <si>
     <t>taxon</t>
+  </si>
+  <si>
+    <t>X2012</t>
+  </si>
+  <si>
+    <t>X2013</t>
+  </si>
+  <si>
+    <t>X2014</t>
+  </si>
+  <si>
+    <t>X2015</t>
+  </si>
+  <si>
+    <t>X2016</t>
+  </si>
+  <si>
+    <t>X2017</t>
+  </si>
+  <si>
+    <t>X2018</t>
+  </si>
+  <si>
+    <t>X2019</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t>Acmaea.mitra</t>
+  </si>
+  <si>
+    <t>Amphipoda</t>
+  </si>
+  <si>
+    <t>Amphiporus</t>
+  </si>
+  <si>
+    <t>Amphissa.sp.</t>
+  </si>
+  <si>
+    <t>Bare.rock</t>
+  </si>
+  <si>
+    <t>Bittium</t>
+  </si>
+  <si>
+    <t>Calliostoma</t>
+  </si>
+  <si>
+    <t>Chiton</t>
+  </si>
+  <si>
+    <t>Chlorostoma.sp.</t>
+  </si>
+  <si>
+    <t>Clam</t>
+  </si>
+  <si>
+    <t>Cottoidea</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Cryptochiton</t>
+  </si>
+  <si>
+    <t>Cucumaria.miniata</t>
+  </si>
+  <si>
+    <t>Dermasterias</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Gammaridae</t>
+  </si>
+  <si>
+    <t>Gobiesox</t>
+  </si>
+  <si>
+    <t>Haplogaster.sp.</t>
+  </si>
+  <si>
+    <t>Hemigrapsis.sp.</t>
+  </si>
+  <si>
+    <t>Henricia</t>
+  </si>
+  <si>
+    <t>Isopoda</t>
+  </si>
+  <si>
+    <t>Katharina.tunicata</t>
+  </si>
+  <si>
+    <t>Lacuna.sp.</t>
+  </si>
+  <si>
+    <t>Leptasterias.sp.</t>
+  </si>
+  <si>
+    <t>Ligia.sp.</t>
+  </si>
+  <si>
+    <t>Limpet</t>
+  </si>
+  <si>
+    <t>Littorina.scutulata</t>
+  </si>
+  <si>
+    <t>Littorina.sp.</t>
+  </si>
+  <si>
+    <t>Lophopanopeus.bellus</t>
+  </si>
+  <si>
+    <t>Lottia.sp.</t>
+  </si>
+  <si>
+    <t>Mopalia.sp.</t>
+  </si>
+  <si>
+    <t>Nemertea</t>
+  </si>
+  <si>
+    <t>Nereid</t>
+  </si>
+  <si>
+    <t>Nucella</t>
+  </si>
+  <si>
+    <t>Nudipleura</t>
+  </si>
+  <si>
+    <t>Onchidella</t>
+  </si>
+  <si>
+    <t>Pagarus.sp.</t>
+  </si>
+  <si>
+    <t>Pentidotea.sp.</t>
+  </si>
+  <si>
+    <t>Pholidae</t>
+  </si>
+  <si>
+    <t>Pisaster.ochraceus</t>
+  </si>
+  <si>
+    <t>Polychaete</t>
+  </si>
+  <si>
+    <t>Pugettia</t>
+  </si>
+  <si>
+    <t>Pycnopodia.helianthoides</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Sea.star</t>
+  </si>
+  <si>
+    <t>Snail</t>
+  </si>
+  <si>
+    <t>Strongylocentrotus.droebachiensis</t>
+  </si>
+  <si>
+    <t>Strongylocentrotus.purpuratus</t>
+  </si>
+  <si>
+    <t>Tegula.sp.</t>
+  </si>
+  <si>
+    <t>Tonicella.lineata</t>
+  </si>
+  <si>
+    <t>Tonicella.sp.</t>
+  </si>
+  <si>
+    <t>Worm</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,6 +971,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -950,7 +1153,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -959,6 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1313,19 +1517,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84:U84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>139</v>
       </c>
@@ -1338,7 +1543,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1349,7 +1554,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>140</v>
       </c>
@@ -1357,7 +1562,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>141</v>
       </c>
@@ -1385,8 +1590,38 @@
       <c r="I5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>146</v>
+      </c>
+      <c r="R5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S5" t="s">
+        <v>148</v>
+      </c>
+      <c r="T5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1415,11 +1650,42 @@
         <v>77</v>
       </c>
       <c r="J6">
-        <f>SUM(B6:I6)</f>
+        <f t="shared" ref="J6:J37" si="0">SUM(B6:I6)</f>
         <v>602</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6">
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <v>65</v>
+      </c>
+      <c r="O6">
+        <v>81</v>
+      </c>
+      <c r="P6">
+        <v>69</v>
+      </c>
+      <c r="Q6">
+        <v>76</v>
+      </c>
+      <c r="R6">
+        <v>76</v>
+      </c>
+      <c r="S6">
+        <v>81</v>
+      </c>
+      <c r="T6">
+        <v>77</v>
+      </c>
+      <c r="U6">
+        <f>SUM(M6:T6)</f>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1448,11 +1714,42 @@
         <v>54</v>
       </c>
       <c r="J7">
-        <f>SUM(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>455</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7">
+        <v>65</v>
+      </c>
+      <c r="N7">
+        <v>66</v>
+      </c>
+      <c r="O7">
+        <v>61</v>
+      </c>
+      <c r="P7">
+        <v>77</v>
+      </c>
+      <c r="Q7">
+        <v>88</v>
+      </c>
+      <c r="R7">
+        <v>87</v>
+      </c>
+      <c r="S7">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <v>78</v>
+      </c>
+      <c r="U7">
+        <f>SUM(M7:T7)</f>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -1481,11 +1778,42 @@
         <v>68</v>
       </c>
       <c r="J8">
-        <f>SUM(B8:I8)</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <v>68</v>
+      </c>
+      <c r="P8">
+        <v>57</v>
+      </c>
+      <c r="Q8">
+        <v>52</v>
+      </c>
+      <c r="R8">
+        <v>45</v>
+      </c>
+      <c r="S8">
+        <v>63</v>
+      </c>
+      <c r="T8">
+        <v>54</v>
+      </c>
+      <c r="U8">
+        <f>SUM(M8:T8)</f>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1514,11 +1842,42 @@
         <v>46</v>
       </c>
       <c r="J9">
-        <f>SUM(B9:I9)</f>
+        <f t="shared" si="0"/>
         <v>422</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9">
+        <v>47</v>
+      </c>
+      <c r="N9">
+        <v>57</v>
+      </c>
+      <c r="O9">
+        <v>62</v>
+      </c>
+      <c r="P9">
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <v>37</v>
+      </c>
+      <c r="R9">
+        <v>58</v>
+      </c>
+      <c r="S9">
+        <v>53</v>
+      </c>
+      <c r="T9">
+        <v>68</v>
+      </c>
+      <c r="U9">
+        <f>SUM(M9:T9)</f>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1547,11 +1906,42 @@
         <v>27</v>
       </c>
       <c r="J10">
-        <f>SUM(B10:I10)</f>
+        <f t="shared" si="0"/>
         <v>381</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>57</v>
+      </c>
+      <c r="O10">
+        <v>60</v>
+      </c>
+      <c r="P10">
+        <v>65</v>
+      </c>
+      <c r="Q10">
+        <v>41</v>
+      </c>
+      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>55</v>
+      </c>
+      <c r="T10">
+        <v>46</v>
+      </c>
+      <c r="U10">
+        <f>SUM(M10:T10)</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1580,11 +1970,42 @@
         <v>57</v>
       </c>
       <c r="J11">
-        <f>SUM(B11:I11)</f>
+        <f t="shared" si="0"/>
         <v>372</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>49</v>
+      </c>
+      <c r="O11">
+        <v>63</v>
+      </c>
+      <c r="P11">
+        <v>52</v>
+      </c>
+      <c r="Q11">
+        <v>61</v>
+      </c>
+      <c r="R11">
+        <v>63</v>
+      </c>
+      <c r="S11">
+        <v>27</v>
+      </c>
+      <c r="T11">
+        <v>27</v>
+      </c>
+      <c r="U11">
+        <f>SUM(M11:T11)</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1613,11 +2034,42 @@
         <v>45</v>
       </c>
       <c r="J12">
-        <f>SUM(B12:I12)</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>54</v>
+      </c>
+      <c r="N12">
+        <v>27</v>
+      </c>
+      <c r="O12">
+        <v>45</v>
+      </c>
+      <c r="P12">
+        <v>35</v>
+      </c>
+      <c r="Q12">
+        <v>49</v>
+      </c>
+      <c r="R12">
+        <v>43</v>
+      </c>
+      <c r="S12">
+        <v>63</v>
+      </c>
+      <c r="T12">
+        <v>57</v>
+      </c>
+      <c r="U12">
+        <f>SUM(M12:T12)</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1646,11 +2098,42 @@
         <v>46</v>
       </c>
       <c r="J13">
-        <f>SUM(B13:I13)</f>
+        <f t="shared" si="0"/>
         <v>356</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <v>46</v>
+      </c>
+      <c r="N13">
+        <v>51</v>
+      </c>
+      <c r="O13">
+        <v>47</v>
+      </c>
+      <c r="P13">
+        <v>45</v>
+      </c>
+      <c r="Q13">
+        <v>50</v>
+      </c>
+      <c r="R13">
+        <v>45</v>
+      </c>
+      <c r="S13">
+        <v>42</v>
+      </c>
+      <c r="T13">
+        <v>45</v>
+      </c>
+      <c r="U13">
+        <f>SUM(M13:T13)</f>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -1679,11 +2162,42 @@
         <v>27</v>
       </c>
       <c r="J14">
-        <f>SUM(B14:I14)</f>
+        <f t="shared" si="0"/>
         <v>333</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14">
+        <v>48</v>
+      </c>
+      <c r="N14">
+        <v>37</v>
+      </c>
+      <c r="O14">
+        <v>47</v>
+      </c>
+      <c r="P14">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <v>45</v>
+      </c>
+      <c r="R14">
+        <v>44</v>
+      </c>
+      <c r="S14">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <v>46</v>
+      </c>
+      <c r="U14">
+        <f>SUM(M14:T14)</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1712,11 +2226,42 @@
         <v>23</v>
       </c>
       <c r="J15">
-        <f>SUM(B15:I15)</f>
+        <f t="shared" si="0"/>
         <v>327</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>44</v>
+      </c>
+      <c r="N15">
+        <v>42</v>
+      </c>
+      <c r="O15">
+        <v>49</v>
+      </c>
+      <c r="P15">
+        <v>39</v>
+      </c>
+      <c r="Q15">
+        <v>39</v>
+      </c>
+      <c r="R15">
+        <v>46</v>
+      </c>
+      <c r="S15">
+        <v>47</v>
+      </c>
+      <c r="T15">
+        <v>43</v>
+      </c>
+      <c r="U15">
+        <f>SUM(M15:T15)</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1745,11 +2290,42 @@
         <v>47</v>
       </c>
       <c r="J16">
-        <f>SUM(B16:I16)</f>
+        <f t="shared" si="0"/>
         <v>304</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16">
+        <v>48</v>
+      </c>
+      <c r="N16">
+        <v>47</v>
+      </c>
+      <c r="O16">
+        <v>52</v>
+      </c>
+      <c r="P16">
+        <v>53</v>
+      </c>
+      <c r="Q16">
+        <v>36</v>
+      </c>
+      <c r="R16">
+        <v>32</v>
+      </c>
+      <c r="S16">
+        <v>39</v>
+      </c>
+      <c r="T16">
+        <v>39</v>
+      </c>
+      <c r="U16">
+        <f>SUM(M16:T16)</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1778,11 +2354,42 @@
         <v>35</v>
       </c>
       <c r="J17">
-        <f>SUM(B17:I17)</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17">
+        <v>44</v>
+      </c>
+      <c r="N17">
+        <v>40</v>
+      </c>
+      <c r="O17">
+        <v>53</v>
+      </c>
+      <c r="P17">
+        <v>29</v>
+      </c>
+      <c r="Q17">
+        <v>28</v>
+      </c>
+      <c r="R17">
+        <v>26</v>
+      </c>
+      <c r="S17">
+        <v>38</v>
+      </c>
+      <c r="T17">
+        <v>47</v>
+      </c>
+      <c r="U17">
+        <f>SUM(M17:T17)</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1811,11 +2418,42 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <f>SUM(B18:I18)</f>
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>35</v>
+      </c>
+      <c r="O18">
+        <v>30</v>
+      </c>
+      <c r="P18">
+        <v>41</v>
+      </c>
+      <c r="Q18">
+        <v>42</v>
+      </c>
+      <c r="R18">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>43</v>
+      </c>
+      <c r="T18">
+        <v>35</v>
+      </c>
+      <c r="U18">
+        <f>SUM(M18:T18)</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1844,11 +2482,42 @@
         <v>36</v>
       </c>
       <c r="J19">
-        <f>SUM(B19:I19)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>28</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>38</v>
+      </c>
+      <c r="R19">
+        <v>19</v>
+      </c>
+      <c r="S19">
+        <v>61</v>
+      </c>
+      <c r="T19">
+        <v>64</v>
+      </c>
+      <c r="U19">
+        <f>SUM(M19:T19)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1877,11 +2546,42 @@
         <v>41</v>
       </c>
       <c r="J20">
-        <f>SUM(B20:I20)</f>
+        <f t="shared" si="0"/>
         <v>237</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>44</v>
+      </c>
+      <c r="O20">
+        <v>36</v>
+      </c>
+      <c r="P20">
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <v>11</v>
+      </c>
+      <c r="R20">
+        <v>24</v>
+      </c>
+      <c r="S20">
+        <v>25</v>
+      </c>
+      <c r="T20">
+        <v>32</v>
+      </c>
+      <c r="U20">
+        <f>SUM(M20:T20)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -1910,11 +2610,42 @@
         <v>15</v>
       </c>
       <c r="J21">
-        <f>SUM(B21:I21)</f>
+        <f t="shared" si="0"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>41</v>
+      </c>
+      <c r="O21">
+        <v>42</v>
+      </c>
+      <c r="P21">
+        <v>21</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>30</v>
+      </c>
+      <c r="S21">
+        <v>30</v>
+      </c>
+      <c r="T21">
+        <v>36</v>
+      </c>
+      <c r="U21">
+        <f>SUM(M21:T21)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1943,11 +2674,42 @@
         <v>11</v>
       </c>
       <c r="J22">
-        <f>SUM(B22:I22)</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>37</v>
+      </c>
+      <c r="N22">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>32</v>
+      </c>
+      <c r="S22">
+        <v>36</v>
+      </c>
+      <c r="T22">
+        <v>41</v>
+      </c>
+      <c r="U22">
+        <f>SUM(M22:T22)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -1976,11 +2738,42 @@
         <v>17</v>
       </c>
       <c r="J23">
-        <f>SUM(B23:I23)</f>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>27</v>
+      </c>
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>37</v>
+      </c>
+      <c r="R23">
+        <v>32</v>
+      </c>
+      <c r="S23">
+        <v>25</v>
+      </c>
+      <c r="T23">
+        <v>15</v>
+      </c>
+      <c r="U23">
+        <f>SUM(M23:T23)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2009,11 +2802,42 @@
         <v>19</v>
       </c>
       <c r="J24">
-        <f>SUM(B24:I24)</f>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>32</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="R24">
+        <v>30</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24">
+        <f>SUM(M24:T24)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2042,11 +2866,42 @@
         <v>21</v>
       </c>
       <c r="J25">
-        <f>SUM(B25:I25)</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>18</v>
+      </c>
+      <c r="O25">
+        <v>31</v>
+      </c>
+      <c r="P25">
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+      <c r="R25">
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <v>24</v>
+      </c>
+      <c r="T25">
+        <v>17</v>
+      </c>
+      <c r="U25">
+        <f>SUM(M25:T25)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2075,11 +2930,42 @@
         <v>19</v>
       </c>
       <c r="J26">
-        <f>SUM(B26:I26)</f>
+        <f t="shared" si="0"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>21</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <v>27</v>
+      </c>
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <v>19</v>
+      </c>
+      <c r="U26">
+        <f>SUM(M26:T26)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2108,11 +2994,42 @@
         <v>14</v>
       </c>
       <c r="J27">
-        <f>SUM(B27:I27)</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>14</v>
+      </c>
+      <c r="O27">
+        <v>31</v>
+      </c>
+      <c r="P27">
+        <v>21</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>22</v>
+      </c>
+      <c r="S27">
+        <v>28</v>
+      </c>
+      <c r="T27">
+        <v>21</v>
+      </c>
+      <c r="U27">
+        <f>SUM(M27:T27)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -2141,11 +3058,42 @@
         <v>6</v>
       </c>
       <c r="J28">
-        <f>SUM(B28:I28)</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>22</v>
+      </c>
+      <c r="P28">
+        <v>19</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
+      <c r="T28">
+        <v>19</v>
+      </c>
+      <c r="U28">
+        <f>SUM(M28:T28)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2174,11 +3122,42 @@
         <v>8</v>
       </c>
       <c r="J29">
-        <f>SUM(B29:I29)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>19</v>
+      </c>
+      <c r="O29">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>32</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <v>16</v>
+      </c>
+      <c r="S29">
+        <v>29</v>
+      </c>
+      <c r="T29">
+        <v>11</v>
+      </c>
+      <c r="U29">
+        <f>SUM(M29:T29)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -2207,11 +3186,42 @@
         <v>16</v>
       </c>
       <c r="J30">
-        <f>SUM(B30:I30)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>32</v>
+      </c>
+      <c r="P30">
+        <v>25</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>21</v>
+      </c>
+      <c r="S30">
+        <v>29</v>
+      </c>
+      <c r="T30">
+        <v>14</v>
+      </c>
+      <c r="U30">
+        <f>SUM(M30:T30)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -2240,11 +3250,42 @@
         <v>11</v>
       </c>
       <c r="J31">
-        <f>SUM(B31:I31)</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <v>17</v>
+      </c>
+      <c r="P31">
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <v>19</v>
+      </c>
+      <c r="R31">
+        <v>16</v>
+      </c>
+      <c r="S31">
+        <v>19</v>
+      </c>
+      <c r="T31">
+        <v>14</v>
+      </c>
+      <c r="U31">
+        <f>SUM(M31:T31)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2273,11 +3314,42 @@
         <v>17</v>
       </c>
       <c r="J32">
-        <f>SUM(B32:I32)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>17</v>
+      </c>
+      <c r="O32">
+        <v>14</v>
+      </c>
+      <c r="P32">
+        <v>16</v>
+      </c>
+      <c r="Q32">
+        <v>15</v>
+      </c>
+      <c r="R32">
+        <v>18</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>16</v>
+      </c>
+      <c r="U32">
+        <f>SUM(M32:T32)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -2306,11 +3378,42 @@
         <v>14</v>
       </c>
       <c r="J33">
-        <f>SUM(B33:I33)</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>179</v>
+      </c>
+      <c r="M33">
+        <v>35</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>9</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>21</v>
+      </c>
+      <c r="T33">
+        <v>29</v>
+      </c>
+      <c r="U33">
+        <f>SUM(M33:T33)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -2339,11 +3442,42 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <f>SUM(B34:I34)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>105</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="N34">
+        <v>21</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <v>14</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>11</v>
+      </c>
+      <c r="U34">
+        <f>SUM(M34:T34)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2372,11 +3506,42 @@
         <v>17</v>
       </c>
       <c r="J35">
-        <f>SUM(B35:I35)</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35">
+        <v>13</v>
+      </c>
+      <c r="O35">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>13</v>
+      </c>
+      <c r="Q35">
+        <v>19</v>
+      </c>
+      <c r="R35">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>13</v>
+      </c>
+      <c r="T35">
+        <v>17</v>
+      </c>
+      <c r="U35">
+        <f>SUM(M35:T35)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -2405,11 +3570,42 @@
         <v>13</v>
       </c>
       <c r="J36">
-        <f>SUM(B36:I36)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>11</v>
+      </c>
+      <c r="O36">
+        <v>15</v>
+      </c>
+      <c r="P36">
+        <v>13</v>
+      </c>
+      <c r="Q36">
+        <v>15</v>
+      </c>
+      <c r="R36">
+        <v>16</v>
+      </c>
+      <c r="S36">
+        <v>16</v>
+      </c>
+      <c r="T36">
+        <v>14</v>
+      </c>
+      <c r="U36">
+        <f>SUM(M36:T36)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2438,11 +3634,42 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <f>SUM(B37:I37)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>17</v>
+      </c>
+      <c r="O37">
+        <v>13</v>
+      </c>
+      <c r="P37">
+        <v>18</v>
+      </c>
+      <c r="Q37">
+        <v>14</v>
+      </c>
+      <c r="R37">
+        <v>17</v>
+      </c>
+      <c r="S37">
+        <v>12</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <f>SUM(M37:T37)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -2471,11 +3698,42 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <f>SUM(B38:I38)</f>
+        <f t="shared" ref="J38:J69" si="1">SUM(B38:I38)</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>15</v>
+      </c>
+      <c r="O38">
+        <v>13</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <v>19</v>
+      </c>
+      <c r="S38">
+        <v>21</v>
+      </c>
+      <c r="T38">
+        <v>13</v>
+      </c>
+      <c r="U38">
+        <f>SUM(M38:T38)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2504,11 +3762,42 @@
         <v>11</v>
       </c>
       <c r="J39">
-        <f>SUM(B39:I39)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>18</v>
+      </c>
+      <c r="R39">
+        <v>24</v>
+      </c>
+      <c r="S39">
+        <v>24</v>
+      </c>
+      <c r="T39">
+        <v>17</v>
+      </c>
+      <c r="U39">
+        <f>SUM(M39:T39)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2537,11 +3826,42 @@
         <v>7</v>
       </c>
       <c r="J40">
-        <f>SUM(B40:I40)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <v>11</v>
+      </c>
+      <c r="P40">
+        <v>11</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>14</v>
+      </c>
+      <c r="S40">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <v>13</v>
+      </c>
+      <c r="U40">
+        <f>SUM(M40:T40)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -2570,11 +3890,42 @@
         <v>11</v>
       </c>
       <c r="J41">
-        <f>SUM(B41:I41)</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>173</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>13</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>9</v>
+      </c>
+      <c r="R41">
+        <v>15</v>
+      </c>
+      <c r="S41">
+        <v>20</v>
+      </c>
+      <c r="T41">
+        <v>18</v>
+      </c>
+      <c r="U41">
+        <f>SUM(M41:T41)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -2603,11 +3954,42 @@
         <v>21</v>
       </c>
       <c r="J42">
-        <f>SUM(B42:I42)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>33</v>
+      </c>
+      <c r="O42">
+        <v>17</v>
+      </c>
+      <c r="P42">
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>13</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <f>SUM(M42:T42)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2636,11 +4018,42 @@
         <v>9</v>
       </c>
       <c r="J43">
-        <f>SUM(B43:I43)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>11</v>
+      </c>
+      <c r="Q43">
+        <v>20</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>15</v>
+      </c>
+      <c r="T43">
+        <v>11</v>
+      </c>
+      <c r="U43">
+        <f>SUM(M43:T43)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2669,11 +4082,42 @@
         <v>5</v>
       </c>
       <c r="J44">
-        <f>SUM(B44:I44)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>69</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>9</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <v>13</v>
+      </c>
+      <c r="R44">
+        <v>15</v>
+      </c>
+      <c r="S44">
+        <v>19</v>
+      </c>
+      <c r="T44">
+        <v>11</v>
+      </c>
+      <c r="U44">
+        <f>SUM(M44:T44)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2702,11 +4146,42 @@
         <v>9</v>
       </c>
       <c r="J45">
-        <f>SUM(B45:I45)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>33</v>
+      </c>
+      <c r="Q45">
+        <v>11</v>
+      </c>
+      <c r="R45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>15</v>
+      </c>
+      <c r="T45">
+        <v>7</v>
+      </c>
+      <c r="U45">
+        <f>SUM(M45:T45)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -2735,11 +4210,42 @@
         <v>11</v>
       </c>
       <c r="J46">
-        <f>SUM(B46:I46)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>106</v>
+      </c>
+      <c r="M46">
+        <v>9</v>
+      </c>
+      <c r="N46">
+        <v>13</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>18</v>
+      </c>
+      <c r="T46">
+        <v>21</v>
+      </c>
+      <c r="U46">
+        <f>SUM(M46:T46)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2768,11 +4274,42 @@
         <v>6</v>
       </c>
       <c r="J47">
-        <f>SUM(B47:I47)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47">
+        <v>12</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47">
+        <v>14</v>
+      </c>
+      <c r="P47">
+        <v>13</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>9</v>
+      </c>
+      <c r="U47">
+        <f>SUM(M47:T47)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -2801,11 +4338,42 @@
         <v>4</v>
       </c>
       <c r="J48">
-        <f>SUM(B48:I48)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>191</v>
+      </c>
+      <c r="M48">
+        <v>16</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+      <c r="T48">
+        <v>16</v>
+      </c>
+      <c r="U48">
+        <f>SUM(M48:T48)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2834,11 +4402,42 @@
         <v>3</v>
       </c>
       <c r="J49">
-        <f>SUM(B49:I49)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>8</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>9</v>
+      </c>
+      <c r="Q49">
+        <v>15</v>
+      </c>
+      <c r="R49">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>16</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="U49">
+        <f>SUM(M49:T49)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2867,11 +4466,42 @@
         <v>5</v>
       </c>
       <c r="J50">
-        <f>SUM(B50:I50)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>13</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>12</v>
+      </c>
+      <c r="R50">
+        <v>14</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <v>11</v>
+      </c>
+      <c r="U50">
+        <f>SUM(M50:T50)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2900,11 +4530,42 @@
         <v>2</v>
       </c>
       <c r="J51">
-        <f>SUM(B51:I51)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+      <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="R51">
+        <v>9</v>
+      </c>
+      <c r="S51">
+        <v>9</v>
+      </c>
+      <c r="T51">
+        <v>9</v>
+      </c>
+      <c r="U51">
+        <f>SUM(M51:T51)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -2933,11 +4594,42 @@
         <v>7</v>
       </c>
       <c r="J52">
-        <f>SUM(B52:I52)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>6</v>
+      </c>
+      <c r="P52">
+        <v>7</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>8</v>
+      </c>
+      <c r="S52">
+        <v>9</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <f>SUM(M52:T52)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2966,11 +4658,42 @@
         <v>9</v>
       </c>
       <c r="J53">
-        <f>SUM(B53:I53)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>6</v>
+      </c>
+      <c r="O53">
+        <v>11</v>
+      </c>
+      <c r="P53">
+        <v>16</v>
+      </c>
+      <c r="Q53">
+        <v>8</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <f>SUM(M53:T53)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2999,11 +4722,42 @@
         <v>4</v>
       </c>
       <c r="J54">
-        <f>SUM(B54:I54)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>11</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <v>10</v>
+      </c>
+      <c r="R54">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <v>7</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <f>SUM(M54:T54)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -3032,11 +4786,42 @@
         <v>9</v>
       </c>
       <c r="J55">
-        <f>SUM(B55:I55)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>16</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+      <c r="Q55">
+        <v>10</v>
+      </c>
+      <c r="R55">
+        <v>10</v>
+      </c>
+      <c r="S55">
+        <v>10</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <f>SUM(M55:T55)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3065,11 +4850,42 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <f>SUM(B56:I56)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L56" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>11</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>8</v>
+      </c>
+      <c r="Q56">
+        <v>10</v>
+      </c>
+      <c r="R56">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <f>SUM(M56:T56)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3098,11 +4914,42 @@
         <v>2</v>
       </c>
       <c r="J57">
-        <f>SUM(B57:I57)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>11</v>
+      </c>
+      <c r="S57">
+        <v>9</v>
+      </c>
+      <c r="T57">
+        <v>7</v>
+      </c>
+      <c r="U57">
+        <f>SUM(M57:T57)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3131,11 +4978,42 @@
         <v>12</v>
       </c>
       <c r="J58">
-        <f>SUM(B58:I58)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>93</v>
+      </c>
+      <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>9</v>
+      </c>
+      <c r="U58">
+        <f>SUM(M58:T58)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -3164,11 +5042,42 @@
         <v>7</v>
       </c>
       <c r="J59">
-        <f>SUM(B59:I59)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>188</v>
+      </c>
+      <c r="M59">
+        <v>26</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>8</v>
+      </c>
+      <c r="T59">
+        <v>5</v>
+      </c>
+      <c r="U59">
+        <f>SUM(M59:T59)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -3197,11 +5106,42 @@
         <v>4</v>
       </c>
       <c r="J60">
-        <f>SUM(B60:I60)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+      <c r="N60">
+        <v>6</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>5</v>
+      </c>
+      <c r="S60">
+        <v>9</v>
+      </c>
+      <c r="T60">
+        <v>4</v>
+      </c>
+      <c r="U60">
+        <f>SUM(M60:T60)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3230,11 +5170,42 @@
         <v>5</v>
       </c>
       <c r="J61">
-        <f>SUM(B61:I61)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>9</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f>SUM(M61:T61)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -3263,11 +5234,42 @@
         <v>4</v>
       </c>
       <c r="J62">
-        <f>SUM(B62:I62)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62">
+        <v>9</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>11</v>
+      </c>
+      <c r="T62">
+        <v>9</v>
+      </c>
+      <c r="U62">
+        <f>SUM(M62:T62)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3296,11 +5298,42 @@
         <v>2</v>
       </c>
       <c r="J63">
-        <f>SUM(B63:I63)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>159</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <v>7</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>12</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+      <c r="U63">
+        <f>SUM(M63:T63)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -3329,11 +5362,42 @@
         <v>1</v>
       </c>
       <c r="J64">
-        <f>SUM(B64:I64)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>10</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>7</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <f>SUM(M64:T64)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -3362,11 +5426,42 @@
         <v>9</v>
       </c>
       <c r="J65">
-        <f>SUM(B65:I65)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>158</v>
+      </c>
+      <c r="M65">
+        <v>17</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>12</v>
+      </c>
+      <c r="P65">
+        <v>6</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <f>SUM(M65:T65)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -3395,11 +5490,42 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <f>SUM(B66:I66)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>185</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>13</v>
+      </c>
+      <c r="T66">
+        <v>8</v>
+      </c>
+      <c r="U66">
+        <f>SUM(M66:T66)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3428,11 +5554,42 @@
         <v>4</v>
       </c>
       <c r="J67">
-        <f>SUM(B67:I67)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M67">
+        <v>36</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f>SUM(M67:T67)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -3461,11 +5618,42 @@
         <v>7</v>
       </c>
       <c r="J68">
-        <f>SUM(B68:I68)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>8</v>
+      </c>
+      <c r="R68">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>12</v>
+      </c>
+      <c r="U68">
+        <f>SUM(M68:T68)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3494,11 +5682,42 @@
         <v>5</v>
       </c>
       <c r="J69">
-        <f>SUM(B69:I69)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>123</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>7</v>
+      </c>
+      <c r="P69">
+        <v>7</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>7</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>7</v>
+      </c>
+      <c r="U69">
+        <f>SUM(M69:T69)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -3527,11 +5746,42 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <f>SUM(B70:I70)</f>
+        <f t="shared" ref="J70:J101" si="2">SUM(B70:I70)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
+        <v>125</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>7</v>
+      </c>
+      <c r="S70">
+        <v>14</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <f>SUM(M70:T70)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -3560,11 +5810,42 @@
         <v>3</v>
       </c>
       <c r="J71">
-        <f>SUM(B71:I71)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L71" t="s">
+        <v>202</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>5</v>
+      </c>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <v>6</v>
+      </c>
+      <c r="U71">
+        <f>SUM(M71:T71)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -3593,11 +5874,42 @@
         <v>4</v>
       </c>
       <c r="J72">
-        <f>SUM(B72:I72)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>133</v>
+      </c>
+      <c r="M72">
+        <v>10</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>6</v>
+      </c>
+      <c r="U72">
+        <f>SUM(M72:T72)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3626,11 +5938,42 @@
         <v>3</v>
       </c>
       <c r="J73">
-        <f>SUM(B73:I73)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+      <c r="U73">
+        <f>SUM(M73:T73)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -3659,11 +6002,42 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <f>SUM(B74:I74)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>55</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>6</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <f>SUM(M74:T74)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -3692,11 +6066,42 @@
         <v>5</v>
       </c>
       <c r="J75">
-        <f>SUM(B75:I75)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>7</v>
+      </c>
+      <c r="O75">
+        <v>8</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>4</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <f>SUM(M75:T75)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3725,11 +6130,42 @@
         <v>2</v>
       </c>
       <c r="J76">
-        <f>SUM(B76:I76)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>40</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>7</v>
+      </c>
+      <c r="T76">
+        <v>9</v>
+      </c>
+      <c r="U76">
+        <f>SUM(M76:T76)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -3758,11 +6194,42 @@
         <v>2</v>
       </c>
       <c r="J77">
-        <f>SUM(B77:I77)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>175</v>
+      </c>
+      <c r="M77">
+        <v>7</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>8</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <f>SUM(M77:T77)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3791,11 +6258,42 @@
         <v>8</v>
       </c>
       <c r="J78">
-        <f>SUM(B78:I78)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>92</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>6</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f>SUM(M78:T78)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -3824,11 +6322,42 @@
         <v>1</v>
       </c>
       <c r="J79">
-        <f>SUM(B79:I79)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79">
+        <v>7</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+      <c r="U79">
+        <f>SUM(M79:T79)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -3857,11 +6386,42 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <f>SUM(B80:I80)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L80" t="s">
+        <v>189</v>
+      </c>
+      <c r="M80">
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f>SUM(M80:T80)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -3890,11 +6450,42 @@
         <v>3</v>
       </c>
       <c r="J81">
-        <f>SUM(B81:I81)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <v>7</v>
+      </c>
+      <c r="U81">
+        <f>SUM(M81:T81)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -3923,11 +6514,42 @@
         <v>2</v>
       </c>
       <c r="J82">
-        <f>SUM(B82:I82)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L82" t="s">
+        <v>197</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>6</v>
+      </c>
+      <c r="S82">
+        <v>6</v>
+      </c>
+      <c r="T82">
+        <v>10</v>
+      </c>
+      <c r="U82">
+        <f>SUM(M82:T82)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -3956,11 +6578,42 @@
         <v>1</v>
       </c>
       <c r="J83">
-        <f>SUM(B83:I83)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>7</v>
+      </c>
+      <c r="P83">
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <v>3</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>5</v>
+      </c>
+      <c r="U83">
+        <f>SUM(M83:T83)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -3989,11 +6642,42 @@
         <v>4</v>
       </c>
       <c r="J84">
-        <f>SUM(B84:I84)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>94</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>12</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+      <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <f>SUM(M84:T84)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -4022,11 +6706,42 @@
         <v>4</v>
       </c>
       <c r="J85">
-        <f>SUM(B85:I85)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>172</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>5</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <v>4</v>
+      </c>
+      <c r="U85">
+        <f>SUM(M85:T85)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -4055,11 +6770,42 @@
         <v>1</v>
       </c>
       <c r="J86">
-        <f>SUM(B86:I86)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L86" t="s">
+        <v>124</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>6</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <f>SUM(M86:T86)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>64</v>
       </c>
@@ -4088,11 +6834,42 @@
         <v>2</v>
       </c>
       <c r="J87">
-        <f>SUM(B87:I87)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>9</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <f>SUM(M87:T87)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -4121,11 +6898,42 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <f>SUM(B88:I88)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>11</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>4</v>
+      </c>
+      <c r="U88">
+        <f>SUM(M88:T88)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -4154,11 +6962,42 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <f>SUM(B89:I89)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L89" t="s">
+        <v>162</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>15</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <f>SUM(M89:T89)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -4187,11 +7026,42 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <f>SUM(B90:I90)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L90" t="s">
+        <v>131</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <f>SUM(M90:T90)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -4220,11 +7090,42 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <f>SUM(B91:I91)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L91" t="s">
+        <v>137</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>5</v>
+      </c>
+      <c r="U91">
+        <f>SUM(M91:T91)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -4253,11 +7154,42 @@
         <v>2</v>
       </c>
       <c r="J92">
-        <f>SUM(B92:I92)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
+        <v>200</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>11</v>
+      </c>
+      <c r="U92">
+        <f>SUM(M92:T92)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -4286,11 +7218,42 @@
         <v>1</v>
       </c>
       <c r="J93">
-        <f>SUM(B93:I93)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>49</v>
+      </c>
+      <c r="M93">
+        <v>12</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <f>SUM(M93:T93)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -4319,11 +7282,42 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <f>SUM(B94:I94)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
+        <v>121</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <f>SUM(M94:T94)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -4352,11 +7346,42 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <f>SUM(B95:I95)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>8</v>
+      </c>
+      <c r="U95">
+        <f>SUM(M95:T95)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>62</v>
       </c>
@@ -4385,11 +7410,42 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <f>SUM(B96:I96)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L96" t="s">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <f>SUM(M96:T96)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -4418,11 +7474,42 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <f>SUM(B97:I97)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>5</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <f>SUM(M97:T97)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -4451,11 +7538,42 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <f>SUM(B98:I98)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
+        <v>36</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <f>SUM(M98:T98)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -4484,11 +7602,42 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <f>SUM(B99:I99)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L99" t="s">
+        <v>70</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <f>SUM(M99:T99)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -4517,11 +7666,42 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <f>SUM(B100:I100)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L100" t="s">
+        <v>73</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>7</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <f>SUM(M100:T100)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -4550,11 +7730,42 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <f>SUM(B101:I101)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L101" t="s">
+        <v>76</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>6</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <f>SUM(M101:T101)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -4583,11 +7794,42 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <f>SUM(B102:I102)</f>
+        <f t="shared" ref="J102:J133" si="3">SUM(B102:I102)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L102" t="s">
+        <v>104</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
+        <f>SUM(M102:T102)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -4616,11 +7858,42 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <f>SUM(B103:I103)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L103" t="s">
+        <v>199</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>5</v>
+      </c>
+      <c r="U103">
+        <f>SUM(M103:T103)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>65</v>
       </c>
@@ -4649,11 +7922,42 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <f>SUM(B104:I104)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L104" t="s">
+        <v>31</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>4</v>
+      </c>
+      <c r="U104">
+        <f>SUM(M104:T104)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -4682,11 +7986,42 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <f>SUM(B105:I105)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L105" t="s">
+        <v>38</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>2</v>
+      </c>
+      <c r="P105">
+        <v>2</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <f>SUM(M105:T105)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -4715,11 +8050,42 @@
         <v>3</v>
       </c>
       <c r="J106">
-        <f>SUM(B106:I106)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L106" t="s">
+        <v>64</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>2</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <f>SUM(M106:T106)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -4748,11 +8114,42 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <f>SUM(B107:I107)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L107" t="s">
+        <v>203</v>
+      </c>
+      <c r="M107">
+        <v>11</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <f>SUM(M107:T107)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>57</v>
       </c>
@@ -4781,11 +8178,42 @@
         <v>1</v>
       </c>
       <c r="J108">
-        <f>SUM(B108:I108)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L108" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>4</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <f>SUM(M108:T108)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>68</v>
       </c>
@@ -4814,11 +8242,42 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <f>SUM(B109:I109)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L109" t="s">
+        <v>187</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>3</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>1</v>
+      </c>
+      <c r="U109">
+        <f>SUM(M109:T109)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>91</v>
       </c>
@@ -4847,11 +8306,42 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <f>SUM(B110:I110)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L110" t="s">
+        <v>108</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <f>SUM(M110:T110)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -4880,11 +8370,42 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <f>SUM(B111:I111)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L111" t="s">
+        <v>153</v>
+      </c>
+      <c r="M111">
+        <v>9</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <f>SUM(M111:T111)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -4913,11 +8434,42 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <f>SUM(B112:I112)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L112" t="s">
+        <v>7</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <f>SUM(M112:T112)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -4946,11 +8498,42 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <f>SUM(B113:I113)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L113" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>2</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <f>SUM(M113:T113)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4979,11 +8562,42 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <f>SUM(B114:I114)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L114" t="s">
+        <v>77</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>2</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <f>SUM(M114:T114)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -5012,11 +8626,42 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <f>SUM(B115:I115)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L115" t="s">
+        <v>182</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>3</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
+        <f>SUM(M115:T115)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>52</v>
       </c>
@@ -5045,11 +8690,42 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <f>SUM(B116:I116)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L116" t="s">
+        <v>183</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>7</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <f>SUM(M116:T116)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -5078,11 +8754,42 @@
         <v>3</v>
       </c>
       <c r="J117">
-        <f>SUM(B117:I117)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L117" t="s">
+        <v>126</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>1</v>
+      </c>
+      <c r="U117">
+        <f>SUM(M117:T117)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>80</v>
       </c>
@@ -5111,11 +8818,42 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <f>SUM(B118:I118)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L118" t="s">
+        <v>6</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <f>SUM(M118:T118)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -5144,11 +8882,42 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f>SUM(B119:I119)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L119" t="s">
+        <v>161</v>
+      </c>
+      <c r="M119">
+        <v>5</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <f>SUM(M119:T119)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -5177,11 +8946,42 @@
         <v>1</v>
       </c>
       <c r="J120">
-        <f>SUM(B120:I120)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L120" t="s">
+        <v>167</v>
+      </c>
+      <c r="M120">
+        <v>7</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <f>SUM(M120:T120)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>101</v>
       </c>
@@ -5210,11 +9010,42 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <f>SUM(B121:I121)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L121" t="s">
+        <v>62</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>4</v>
+      </c>
+      <c r="S121">
+        <v>1</v>
+      </c>
+      <c r="T121">
+        <v>1</v>
+      </c>
+      <c r="U121">
+        <f>SUM(M121:T121)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>109</v>
       </c>
@@ -5243,11 +9074,42 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <f>SUM(B122:I122)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L122" t="s">
+        <v>165</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <f>SUM(M122:T122)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -5276,11 +9138,42 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <f>SUM(B123:I123)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L123" t="s">
+        <v>46</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>2</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <f>SUM(M123:T123)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -5309,11 +9202,42 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f>SUM(B124:I124)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L124" t="s">
+        <v>88</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="U124">
+        <f>SUM(M124:T124)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -5342,11 +9266,42 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <f>SUM(B125:I125)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L125" t="s">
+        <v>114</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <f>SUM(M125:T125)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>29</v>
       </c>
@@ -5375,11 +9330,42 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <f>SUM(B126:I126)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L126" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>1</v>
+      </c>
+      <c r="T126">
+        <v>5</v>
+      </c>
+      <c r="U126">
+        <f>SUM(M126:T126)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -5408,11 +9394,42 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <f>SUM(B127:I127)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L127" t="s">
+        <v>59</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
+        <v>1</v>
+      </c>
+      <c r="U127">
+        <f>SUM(M127:T127)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>78</v>
       </c>
@@ -5441,11 +9458,42 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <f>SUM(B128:I128)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L128" t="s">
+        <v>87</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>2</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <f>SUM(M128:T128)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>110</v>
       </c>
@@ -5474,11 +9522,42 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <f>SUM(B129:I129)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L129" t="s">
+        <v>193</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <f>SUM(M129:T129)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>111</v>
       </c>
@@ -5507,11 +9586,42 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <f>SUM(B130:I130)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L130" t="s">
+        <v>118</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>3</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <f>SUM(M130:T130)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -5540,11 +9650,42 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <f>SUM(B131:I131)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>195</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>6</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <f>SUM(M131:T131)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -5573,11 +9714,42 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <f>SUM(B132:I132)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>8</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>3</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <f>SUM(M132:T132)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -5606,11 +9778,42 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <f>SUM(B133:I133)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>25</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <f>SUM(M133:T133)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>53</v>
       </c>
@@ -5639,11 +9842,42 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <f>SUM(B134:I134)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J134:J143" si="4">SUM(B134:I134)</f>
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>163</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
+        <f>SUM(M134:T134)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>63</v>
       </c>
@@ -5672,11 +9906,42 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <f>SUM(B135:I135)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>170</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <f>SUM(M135:T135)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>95</v>
       </c>
@@ -5705,11 +9970,42 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <f>SUM(B136:I136)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>65</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>2</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <f>SUM(M136:T136)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>98</v>
       </c>
@@ -5738,11 +10034,42 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <f>SUM(B137:I137)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>117</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <f>SUM(M137:T137)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>103</v>
       </c>
@@ -5771,11 +10098,42 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <f>SUM(B138:I138)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>196</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>5</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <f>SUM(M138:T138)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>113</v>
       </c>
@@ -5804,11 +10162,42 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <f>SUM(B139:I139)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>152</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <f>SUM(M139:T139)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>119</v>
       </c>
@@ -5837,11 +10226,42 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <f>SUM(B140:I140)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>37</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <f>SUM(M140:T140)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>120</v>
       </c>
@@ -5870,11 +10290,42 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <f>SUM(B141:I141)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>57</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>2</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>1</v>
+      </c>
+      <c r="U141">
+        <f>SUM(M141:T141)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -5903,11 +10354,42 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <f>SUM(B142:I142)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>68</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>4</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <f>SUM(M142:T142)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>134</v>
       </c>
@@ -5936,13 +10418,1760 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <f>SUM(B143:I143)</f>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>91</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <f>SUM(M143:T143)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L144" t="s">
+        <v>100</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <f>SUM(M144:T144)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L145" t="s">
+        <v>194</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <f>SUM(M145:T145)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L146" t="s">
+        <v>127</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <f>SUM(M146:T146)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L147" t="s">
+        <v>128</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>1</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <f>SUM(M147:T147)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L148" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <f>SUM(M148:T148)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L149" t="s">
+        <v>19</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <f>SUM(M149:T149)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L150" t="s">
+        <v>52</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>1</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <f>SUM(M150:T150)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L151" t="s">
+        <v>61</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
+        <f>SUM(M151:T151)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L152" t="s">
+        <v>80</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <f>SUM(M152:T152)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L153" t="s">
+        <v>85</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <f>SUM(M153:T153)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L154" t="s">
+        <v>90</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154">
+        <v>1</v>
+      </c>
+      <c r="T154">
+        <v>1</v>
+      </c>
+      <c r="U154">
+        <f>SUM(M154:T154)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L155" t="s">
+        <v>101</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>1</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <f>SUM(M155:T155)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L156" t="s">
+        <v>109</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>1</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>1</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <f>SUM(M156:T156)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L157" t="s">
+        <v>129</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>2</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <f>SUM(M157:T157)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L158" t="s">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <f>SUM(M158:T158)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L159" t="s">
+        <v>17</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <f>SUM(M159:T159)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L160" t="s">
+        <v>42</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>2</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <f>SUM(M160:T160)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L161" t="s">
+        <v>166</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>1</v>
+      </c>
+      <c r="T161">
+        <v>1</v>
+      </c>
+      <c r="U161">
+        <f>SUM(M161:T161)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L162" t="s">
+        <v>168</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <f>SUM(M162:T162)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L163" t="s">
+        <v>171</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>1</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <f>SUM(M163:T163)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L164" t="s">
+        <v>176</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <f>SUM(M164:T164)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L165" t="s">
+        <v>78</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165">
+        <v>1</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <f>SUM(M165:T165)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L166" t="s">
+        <v>186</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <f>SUM(M166:T166)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L167" t="s">
+        <v>190</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>1</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <f>SUM(M167:T167)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L168" t="s">
+        <v>111</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <f>SUM(M168:T168)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L169" t="s">
+        <v>198</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>1</v>
+      </c>
+      <c r="T169">
+        <v>1</v>
+      </c>
+      <c r="U169">
+        <f>SUM(M169:T169)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L170" t="s">
+        <v>151</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <f>SUM(M170:T170)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L171" t="s">
+        <v>154</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <f>SUM(M171:T171)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L172" t="s">
+        <v>156</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <f>SUM(M172:T172)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L173" t="s">
+        <v>157</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <f>SUM(M173:T173)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L174" t="s">
+        <v>21</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <f>SUM(M174:T174)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L175" t="s">
+        <v>160</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <f>SUM(M175:T175)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L176" t="s">
+        <v>164</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <f>SUM(M176:T176)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L177" t="s">
+        <v>41</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>1</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <f>SUM(M177:T177)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L178" t="s">
+        <v>48</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <f>SUM(M178:T178)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L179" t="s">
+        <v>53</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <f>SUM(M179:T179)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L180" t="s">
+        <v>169</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <f>SUM(M180:T180)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L181" t="s">
+        <v>63</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <f>SUM(M181:T181)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L182" t="s">
+        <v>174</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <f>SUM(M182:T182)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L183" t="s">
+        <v>178</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <f>SUM(M183:T183)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L184" t="s">
+        <v>180</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <f>SUM(M184:T184)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L185" t="s">
+        <v>184</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <f>SUM(M185:T185)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L186" t="s">
+        <v>95</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>1</v>
+      </c>
+      <c r="U186">
+        <f>SUM(M186:T186)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L187" t="s">
+        <v>98</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <f>SUM(M187:T187)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L188" t="s">
+        <v>103</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <f>SUM(M188:T188)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L189" t="s">
+        <v>192</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <f>SUM(M189:T189)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L190" t="s">
+        <v>113</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <f>SUM(M190:T190)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L191" t="s">
+        <v>119</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <f>SUM(M191:T191)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L192" t="s">
+        <v>120</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>1</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <f>SUM(M192:T192)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L193" t="s">
+        <v>130</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <f>SUM(M193:T193)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L194" t="s">
+        <v>201</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <f>SUM(M194:T194)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L195" t="s">
+        <v>134</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <f>SUM(M195:T195)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A6:J143">
-    <sortCondition descending="1" ref="J6:J143"/>
+  <sortState ref="L6:U195">
+    <sortCondition descending="1" ref="U6:U195"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B1:J2"/>
